--- a/excelhere/room_two.xlsx
+++ b/excelhere/room_two.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel </t>
+          <t>234</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/excelhere/room_two.xlsx
+++ b/excelhere/room_two.xlsx
@@ -442,21 +442,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr">
         <is>
           <t>2</t>

--- a/excelhere/room_two.xlsx
+++ b/excelhere/room_two.xlsx
@@ -442,9 +442,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>2</t>

--- a/excelhere/room_two.xlsx
+++ b/excelhere/room_two.xlsx
@@ -433,37 +433,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excelhere/room_two.xlsx
+++ b/excelhere/room_two.xlsx
@@ -433,14 +433,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -451,14 +474,99 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>신라면(컵)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>930</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>신라면(컵)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>930</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>식탁보</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelhere/room_two.xlsx
+++ b/excelhere/room_two.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t xml:space="preserve">jack </t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>daniels</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,28 +485,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>접시140</t>
+          <t>에너지 드링크</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>1000</v>
+          <t>캔</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
-      <c r="E1" t="n">
-        <v>1000</v>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>신라면(컵)</t>
+          <t>양념치킨</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,19 +519,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>930</v>
+        <v>9000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>930</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>신라면(컵)</t>
+          <t>치킨</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,34 +540,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>930</v>
+        <v>8000</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>식탁보</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_two.xlsx
+++ b/excelhere/room_two.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,48 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>육개장(컵)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>에어베게</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelhere/room_two.xlsx
+++ b/excelhere/room_two.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">jack </t>
+          <t>Jeju</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>daniels</t>
+          <t>Samdasu</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>치킨</t>
+          <t>육개장(컵)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,19 +540,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8000</v>
+        <v>1050</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>8000</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>육개장(컵)</t>
+          <t>사이다</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -561,19 +561,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>에어베게</t>
+          <t>노트</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -582,13 +582,55 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2600</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>녹말요지</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>부의봉투</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>800</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_two.xlsx
+++ b/excelhere/room_two.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Jeju</t>
+          <t>백순자</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Samdasu</t>
+          <t>양경자</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>부의봉투</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -519,117 +519,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>육개장(컵)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>사이다</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>노트</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>600</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>녹말요지</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>부의봉투</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>800</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
         <v>800</v>
       </c>
     </row>
